--- a/data_year/zb/能源/平均每天能源消费量.xlsx
+++ b/data_year/zb/能源/平均每天能源消费量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,741 +488,408 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58.0109562842</v>
+        <v>117.4645222143</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6694808743</v>
+        <v>2.9595731789</v>
       </c>
       <c r="D2" t="n">
-        <v>18.5962553133</v>
+        <v>40.271228975</v>
       </c>
       <c r="E2" t="n">
-        <v>9.575298354499999</v>
+        <v>19.0580894102</v>
       </c>
       <c r="F2" t="n">
-        <v>29.6195519126</v>
+        <v>106.0350490382</v>
       </c>
       <c r="G2" t="n">
-        <v>2.3814480874</v>
+        <v>4.8360930385</v>
       </c>
       <c r="H2" t="n">
-        <v>370.7367562637</v>
+        <v>956.1870123912</v>
       </c>
       <c r="I2" t="n">
-        <v>10.581284153</v>
+        <v>10.295933319</v>
       </c>
       <c r="J2" t="n">
-        <v>36.8097814208</v>
+        <v>114.889008578</v>
       </c>
       <c r="K2" t="n">
-        <v>401.5409771357</v>
+        <v>988.076341555</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.4732602739726</v>
+        <v>120.454357830756</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7515068493150689</v>
+        <v>3.67417122255806</v>
       </c>
       <c r="D3" t="n">
-        <v>19.4730136986301</v>
+        <v>42.8359037987438</v>
       </c>
       <c r="E3" t="n">
-        <v>9.856849315068491</v>
+        <v>20.8108263445599</v>
       </c>
       <c r="F3" t="n">
-        <v>30.1348767123288</v>
+        <v>115.241870433191</v>
       </c>
       <c r="G3" t="n">
-        <v>2.43909589041096</v>
+        <v>4.97731270303079</v>
       </c>
       <c r="H3" t="n">
-        <v>369.863150684932</v>
+        <v>1065.64683880223</v>
       </c>
       <c r="I3" t="n">
-        <v>10.5485479452055</v>
+        <v>10.0350714536668</v>
       </c>
       <c r="J3" t="n">
-        <v>40.3382465753425</v>
+        <v>128.769530438494</v>
       </c>
       <c r="K3" t="n">
-        <v>392.326843813861</v>
+        <v>1060.3921028017</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.756301369863</v>
+        <v>127.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.799561643835616</v>
+        <v>4.10137885897785</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0058904109589</v>
+        <v>46.4</v>
       </c>
       <c r="E4" t="n">
-        <v>10.2731506849315</v>
+        <v>22.3</v>
       </c>
       <c r="F4" t="n">
-        <v>33.8183150684931</v>
+        <v>122.4</v>
       </c>
       <c r="G4" t="n">
-        <v>2.51835616438356</v>
+        <v>5.3</v>
       </c>
       <c r="H4" t="n">
-        <v>387.946657534247</v>
+        <v>1124.9</v>
       </c>
       <c r="I4" t="n">
-        <v>10.6133424657534</v>
+        <v>10.0911892957814</v>
       </c>
       <c r="J4" t="n">
-        <v>45.1108219178082</v>
+        <v>136</v>
       </c>
       <c r="K4" t="n">
-        <v>415.881066306333</v>
+        <v>1098.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68.27946354737701</v>
+        <v>133.293563310208</v>
       </c>
       <c r="C5" t="n">
-        <v>0.928993279096765</v>
+        <v>4.67224328956487</v>
       </c>
       <c r="D5" t="n">
-        <v>23.0404376593854</v>
+        <v>46.9880693457494</v>
       </c>
       <c r="E5" t="n">
-        <v>11.1562140688064</v>
+        <v>25.6612442588143</v>
       </c>
       <c r="F5" t="n">
-        <v>39.7363258077275</v>
+        <v>125.621575073632</v>
       </c>
       <c r="G5" t="n">
-        <v>2.52495472959209</v>
+        <v>5.92894823344637</v>
       </c>
       <c r="H5" t="n">
-        <v>463.649441390967</v>
+        <v>1162.81079732139</v>
       </c>
       <c r="I5" t="n">
-        <v>11.5630947895277</v>
+        <v>10.8327993079611</v>
       </c>
       <c r="J5" t="n">
-        <v>52.1413697634968</v>
+        <v>148.502482317812</v>
       </c>
       <c r="K5" t="n">
-        <v>479.31955815074</v>
+        <v>1142.22744002036</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.765233969863</v>
+        <v>141.4</v>
       </c>
       <c r="C6" t="n">
-        <v>1.08689582427526</v>
+        <v>5.1</v>
       </c>
       <c r="D6" t="n">
-        <v>27.110017798743</v>
+        <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>12.8650951531996</v>
+        <v>26.8</v>
       </c>
       <c r="F6" t="n">
-        <v>47.3068738338203</v>
+        <v>128.5</v>
       </c>
       <c r="G6" t="n">
-        <v>2.90646168694389</v>
+        <v>6.4</v>
       </c>
       <c r="H6" t="n">
-        <v>530.399993678755</v>
+        <v>1133.2</v>
       </c>
       <c r="I6" t="n">
-        <v>13.1054125021453</v>
+        <v>11.9</v>
       </c>
       <c r="J6" t="n">
-        <v>60.1955455767575</v>
+        <v>158.4</v>
       </c>
       <c r="K6" t="n">
-        <v>556.786345686452</v>
+        <v>1173.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.4354504108</v>
+        <v>150.1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.2769332568</v>
+        <v>5.3</v>
       </c>
       <c r="D7" t="n">
-        <v>30.0683190019</v>
+        <v>47.6</v>
       </c>
       <c r="E7" t="n">
-        <v>13.3011242536</v>
+        <v>31.1</v>
       </c>
       <c r="F7" t="n">
-        <v>68.7831259781</v>
+        <v>120.7</v>
       </c>
       <c r="G7" t="n">
-        <v>2.9502564654</v>
+        <v>7.3</v>
       </c>
       <c r="H7" t="n">
-        <v>666.7820238154</v>
+        <v>1095.4</v>
       </c>
       <c r="I7" t="n">
-        <v>11.6278251035</v>
+        <v>12.8</v>
       </c>
       <c r="J7" t="n">
-        <v>68.3296420612</v>
+        <v>159</v>
       </c>
       <c r="K7" t="n">
-        <v>716.0805330422</v>
+        <v>1189.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88.3</v>
+        <v>156.1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.5</v>
+        <v>5.7</v>
       </c>
       <c r="D8" t="n">
+        <v>46</v>
+      </c>
+      <c r="E8" t="n">
         <v>32.4</v>
       </c>
-      <c r="E8" t="n">
-        <v>14.4</v>
-      </c>
       <c r="F8" t="n">
-        <v>76.40000000000001</v>
+        <v>124.2</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>8.1</v>
       </c>
       <c r="H8" t="n">
-        <v>698.8</v>
+        <v>1062.4</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>12.7</v>
       </c>
       <c r="J8" t="n">
-        <v>78.3</v>
+        <v>167.2</v>
       </c>
       <c r="K8" t="n">
-        <v>708.7</v>
+        <v>1206.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93.2</v>
+        <v>162.7</v>
       </c>
       <c r="C9" t="n">
-        <v>1.9</v>
+        <v>6.6</v>
       </c>
       <c r="D9" t="n">
-        <v>34.2</v>
+        <v>46.3</v>
       </c>
       <c r="E9" t="n">
-        <v>15.1</v>
+        <v>33.7</v>
       </c>
       <c r="F9" t="n">
-        <v>79.90000000000001</v>
+        <v>119.8</v>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>9.1</v>
       </c>
       <c r="H9" t="n">
-        <v>747.2</v>
+        <v>1072.3</v>
       </c>
       <c r="I9" t="n">
-        <v>11.4</v>
+        <v>13.4</v>
       </c>
       <c r="J9" t="n">
-        <v>89.59999999999999</v>
+        <v>180.6</v>
       </c>
       <c r="K9" t="n">
-        <v>768.5</v>
+        <v>1248.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97</v>
+        <v>172.6</v>
       </c>
       <c r="C10" t="n">
-        <v>2.2</v>
+        <v>7.7</v>
       </c>
       <c r="D10" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E10" t="n">
-        <v>16.8</v>
+        <v>35.8</v>
       </c>
       <c r="F10" t="n">
-        <v>81.7</v>
+        <v>119.8</v>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>768</v>
+        <v>1088.9</v>
       </c>
       <c r="I10" t="n">
-        <v>8.800000000000001</v>
+        <v>12.4</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40000000000001</v>
+        <v>195.9</v>
       </c>
       <c r="K10" t="n">
-        <v>796.3</v>
+        <v>1292.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>104.46</v>
+        <v>184.3</v>
       </c>
       <c r="C11" t="n">
-        <v>2.45</v>
+        <v>8.4</v>
       </c>
       <c r="D11" t="n">
-        <v>37.69</v>
+        <v>40.9</v>
       </c>
       <c r="E11" t="n">
-        <v>16.91</v>
+        <v>37.3</v>
       </c>
       <c r="F11" t="n">
-        <v>87.26000000000001</v>
+        <v>127.2</v>
       </c>
       <c r="G11" t="n">
-        <v>3.94</v>
+        <v>10.8</v>
       </c>
       <c r="H11" t="n">
-        <v>810.5</v>
+        <v>1101.1</v>
       </c>
       <c r="I11" t="n">
-        <v>7.75</v>
+        <v>12.9</v>
       </c>
       <c r="J11" t="n">
-        <v>101.46</v>
+        <v>205.1</v>
       </c>
       <c r="K11" t="n">
-        <v>840.13</v>
+        <v>1335.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>117.4645222143</v>
+        <v>189.8</v>
       </c>
       <c r="C12" t="n">
-        <v>2.9595731789</v>
+        <v>9.1</v>
       </c>
       <c r="D12" t="n">
-        <v>40.271228975</v>
+        <v>39</v>
       </c>
       <c r="E12" t="n">
-        <v>19.0580894102</v>
+        <v>34.9</v>
       </c>
       <c r="F12" t="n">
-        <v>106.0350490382</v>
+        <v>132</v>
       </c>
       <c r="G12" t="n">
-        <v>4.8360930385</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>956.1870123912</v>
+        <v>1106.2</v>
       </c>
       <c r="I12" t="n">
-        <v>10.295933319</v>
+        <v>14.7</v>
       </c>
       <c r="J12" t="n">
-        <v>114.889008578</v>
+        <v>212.1</v>
       </c>
       <c r="K12" t="n">
-        <v>988.076341555</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>120.454357830756</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.67417122255806</v>
-      </c>
-      <c r="D13" t="n">
-        <v>42.8359037987438</v>
-      </c>
-      <c r="E13" t="n">
-        <v>20.8108263445599</v>
-      </c>
-      <c r="F13" t="n">
-        <v>115.241870433191</v>
-      </c>
-      <c r="G13" t="n">
-        <v>4.97731270303079</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1065.64683880223</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10.0350714536668</v>
-      </c>
-      <c r="J13" t="n">
-        <v>128.769530438494</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1060.3921028017</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4.10137885897785</v>
-      </c>
-      <c r="D14" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="E14" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>122.4</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1124.9</v>
-      </c>
-      <c r="I14" t="n">
-        <v>10.0911892957814</v>
-      </c>
-      <c r="J14" t="n">
-        <v>136</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1098.7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>133.293563310208</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4.67224328956487</v>
-      </c>
-      <c r="D15" t="n">
-        <v>46.9880693457494</v>
-      </c>
-      <c r="E15" t="n">
-        <v>25.6612442588143</v>
-      </c>
-      <c r="F15" t="n">
-        <v>125.621575073632</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5.92894823344637</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1162.81079732139</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10.8327993079611</v>
-      </c>
-      <c r="J15" t="n">
-        <v>148.502482317812</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1142.22744002036</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>141.4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>47</v>
-      </c>
-      <c r="E16" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F16" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="G16" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1133.2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>158.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1173.5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="E17" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>120.7</v>
-      </c>
-      <c r="G17" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1095.4</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>159</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1189.4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>156.1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D18" t="n">
-        <v>46</v>
-      </c>
-      <c r="E18" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>124.2</v>
-      </c>
-      <c r="G18" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1062.4</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J18" t="n">
-        <v>167.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1206.3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>162.7</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D19" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E19" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="F19" t="n">
-        <v>119.8</v>
-      </c>
-      <c r="G19" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1072.3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1248.8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>172.6</v>
-      </c>
-      <c r="C20" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="D20" t="n">
-        <v>45</v>
-      </c>
-      <c r="E20" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="F20" t="n">
-        <v>119.8</v>
-      </c>
-      <c r="G20" t="n">
-        <v>10</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1088.9</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1292.9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="D21" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="E21" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="F21" t="n">
-        <v>127.2</v>
-      </c>
-      <c r="G21" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1101.1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>205.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1335.6</v>
+        <v>1361.5</v>
       </c>
     </row>
   </sheetData>
